--- a/src/analysis_examples/circadb/results_lomb/cosinor_10411459_tmem171_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10411459_tmem171_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3685864941235983, 0.4582581043744192]</t>
+          <t>[0.36780277637260955, 0.45904182212540795]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-1.106947561625232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5407913618641089, 0.5898309823267756]</t>
+          <t>[0.5408005159740236, 0.5898218282168609]</t>
         </is>
       </c>
       <c r="U2" t="n">
